--- a/data/pca/factorExposure/factorExposure_2016-08-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01139345054391519</v>
+        <v>-0.01316282927767575</v>
       </c>
       <c r="C2">
-        <v>-0.05312157032425165</v>
+        <v>0.04243575017472515</v>
       </c>
       <c r="D2">
-        <v>0.03902767193840749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06236720513199948</v>
+      </c>
+      <c r="E2">
+        <v>0.06905512318180718</v>
+      </c>
+      <c r="F2">
+        <v>-0.0684425120895641</v>
+      </c>
+      <c r="G2">
+        <v>-0.03424263261962782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06363609524129522</v>
+        <v>-0.03039960715121964</v>
       </c>
       <c r="C3">
-        <v>-0.09640318355014839</v>
+        <v>0.08134168804243504</v>
       </c>
       <c r="D3">
-        <v>0.09932434255709525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08743486111187476</v>
+      </c>
+      <c r="E3">
+        <v>0.07760890418226264</v>
+      </c>
+      <c r="F3">
+        <v>0.01371932669854576</v>
+      </c>
+      <c r="G3">
+        <v>0.03664341578239066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06676238964834792</v>
+        <v>-0.05765864866684543</v>
       </c>
       <c r="C4">
-        <v>-0.05963019112001943</v>
+        <v>0.06622700428524826</v>
       </c>
       <c r="D4">
-        <v>0.02759236356493046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05833708321292676</v>
+      </c>
+      <c r="E4">
+        <v>0.06900880368225025</v>
+      </c>
+      <c r="F4">
+        <v>-0.07612237300105879</v>
+      </c>
+      <c r="G4">
+        <v>0.03932741560546165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04061982926182765</v>
+        <v>-0.03513812337295143</v>
       </c>
       <c r="C6">
-        <v>-0.03756601022006428</v>
+        <v>0.03121536424284285</v>
       </c>
       <c r="D6">
-        <v>0.03068660709539518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06273464588539414</v>
+      </c>
+      <c r="E6">
+        <v>0.07321677604101133</v>
+      </c>
+      <c r="F6">
+        <v>-0.05914689428467321</v>
+      </c>
+      <c r="G6">
+        <v>0.02308038861688578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02309946568238903</v>
+        <v>-0.01890916528200514</v>
       </c>
       <c r="C7">
-        <v>-0.04415957583002264</v>
+        <v>0.03917480361767126</v>
       </c>
       <c r="D7">
-        <v>-0.006249264543682762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0364084811034356</v>
+      </c>
+      <c r="E7">
+        <v>0.04966284520858479</v>
+      </c>
+      <c r="F7">
+        <v>-0.100024989727831</v>
+      </c>
+      <c r="G7">
+        <v>0.008614652143666777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002740681589447458</v>
+        <v>-0.003232623924029954</v>
       </c>
       <c r="C8">
-        <v>-0.02708014068752002</v>
+        <v>0.02853606248156638</v>
       </c>
       <c r="D8">
-        <v>0.03104081151466167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0310282260353254</v>
+      </c>
+      <c r="E8">
+        <v>0.0501777738523712</v>
+      </c>
+      <c r="F8">
+        <v>-0.04071886233947023</v>
+      </c>
+      <c r="G8">
+        <v>0.01062483716379847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0365239166322617</v>
+        <v>-0.03644109736851767</v>
       </c>
       <c r="C9">
-        <v>-0.04390861167045746</v>
+        <v>0.05267591500982713</v>
       </c>
       <c r="D9">
-        <v>0.01462980975882954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04230804405639672</v>
+      </c>
+      <c r="E9">
+        <v>0.05717181520154799</v>
+      </c>
+      <c r="F9">
+        <v>-0.08396890804421142</v>
+      </c>
+      <c r="G9">
+        <v>0.02411376793454808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06985137320284647</v>
+        <v>-0.09944546895210583</v>
       </c>
       <c r="C10">
-        <v>0.1987696910971383</v>
+        <v>-0.1956400389244215</v>
       </c>
       <c r="D10">
-        <v>-0.01243006933673452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.006014996861368175</v>
+      </c>
+      <c r="E10">
+        <v>0.04450595734108412</v>
+      </c>
+      <c r="F10">
+        <v>-0.04066928626905278</v>
+      </c>
+      <c r="G10">
+        <v>0.009529634446858339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04218857229996253</v>
+        <v>-0.03639580065342368</v>
       </c>
       <c r="C11">
-        <v>-0.05403319919063588</v>
+        <v>0.05156516983705251</v>
       </c>
       <c r="D11">
-        <v>0.01323988569980308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03366812593125204</v>
+      </c>
+      <c r="E11">
+        <v>0.01597105771704188</v>
+      </c>
+      <c r="F11">
+        <v>-0.06455361708807188</v>
+      </c>
+      <c r="G11">
+        <v>0.01580301751266118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04205805269840523</v>
+        <v>-0.03724177742569897</v>
       </c>
       <c r="C12">
-        <v>-0.04841377833872051</v>
+        <v>0.04767918129313278</v>
       </c>
       <c r="D12">
-        <v>0.001188840680114857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02509440519713791</v>
+      </c>
+      <c r="E12">
+        <v>0.02356793269521994</v>
+      </c>
+      <c r="F12">
+        <v>-0.06619893888650176</v>
+      </c>
+      <c r="G12">
+        <v>0.01277876748488293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01757623871598609</v>
+        <v>-0.01232002643842755</v>
       </c>
       <c r="C13">
-        <v>-0.04902218919167331</v>
+        <v>0.0433107707229522</v>
       </c>
       <c r="D13">
-        <v>0.02151927734846935</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05933287256963137</v>
+      </c>
+      <c r="E13">
+        <v>0.08269127375592004</v>
+      </c>
+      <c r="F13">
+        <v>-0.09959531228850199</v>
+      </c>
+      <c r="G13">
+        <v>0.02114710056233013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008173550346432624</v>
+        <v>-0.004815163612854442</v>
       </c>
       <c r="C14">
-        <v>-0.03510615325845191</v>
+        <v>0.03222626679012738</v>
       </c>
       <c r="D14">
-        <v>-0.0143153171874038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02463485090114976</v>
+      </c>
+      <c r="E14">
+        <v>0.03847101142204408</v>
+      </c>
+      <c r="F14">
+        <v>-0.0939663940326971</v>
+      </c>
+      <c r="G14">
+        <v>-0.006447222574103985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0007061118478024954</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005623079179898119</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00654599764886071</v>
+      </c>
+      <c r="E15">
+        <v>0.001875325371226676</v>
+      </c>
+      <c r="F15">
+        <v>-0.004439692728574041</v>
+      </c>
+      <c r="G15">
+        <v>0.0004988119943284371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03854410743802186</v>
+        <v>-0.03378251779118396</v>
       </c>
       <c r="C16">
-        <v>-0.046241584299237</v>
+        <v>0.0454499358675845</v>
       </c>
       <c r="D16">
-        <v>0.0068561771828746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02683463173524131</v>
+      </c>
+      <c r="E16">
+        <v>0.03010096406203821</v>
+      </c>
+      <c r="F16">
+        <v>-0.06729706138293626</v>
+      </c>
+      <c r="G16">
+        <v>0.002235530492595806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02690751678388087</v>
+        <v>-0.01652532145434378</v>
       </c>
       <c r="C19">
-        <v>-0.06267748527400638</v>
+        <v>0.05046155278668397</v>
       </c>
       <c r="D19">
-        <v>0.07614200597008136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08924136972048924</v>
+      </c>
+      <c r="E19">
+        <v>0.1001183120708216</v>
+      </c>
+      <c r="F19">
+        <v>-0.07639076593146785</v>
+      </c>
+      <c r="G19">
+        <v>-0.02126722331810994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01896469064800402</v>
+        <v>-0.01343032795756287</v>
       </c>
       <c r="C20">
-        <v>-0.04416679030795743</v>
+        <v>0.04114500889490736</v>
       </c>
       <c r="D20">
-        <v>0.01548934668311213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03610090839654184</v>
+      </c>
+      <c r="E20">
+        <v>0.0688513271474631</v>
+      </c>
+      <c r="F20">
+        <v>-0.07901937648235217</v>
+      </c>
+      <c r="G20">
+        <v>0.006058711580350261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01368733325484405</v>
+        <v>-0.009003929187484678</v>
       </c>
       <c r="C21">
-        <v>-0.04798700453137372</v>
+        <v>0.04506236343293101</v>
       </c>
       <c r="D21">
-        <v>0.03739346296790307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06582661415889458</v>
+      </c>
+      <c r="E21">
+        <v>0.09643761806322337</v>
+      </c>
+      <c r="F21">
+        <v>-0.1226856438823692</v>
+      </c>
+      <c r="G21">
+        <v>0.009290459985675285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002065242232854882</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02341783304339421</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03583194934497884</v>
+      </c>
+      <c r="E22">
+        <v>0.02789697618819359</v>
+      </c>
+      <c r="F22">
+        <v>-0.01530659285119169</v>
+      </c>
+      <c r="G22">
+        <v>0.03939821173907339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00213414001213661</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0235447061446691</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03549109979801897</v>
+      </c>
+      <c r="E23">
+        <v>0.02815272324686077</v>
+      </c>
+      <c r="F23">
+        <v>-0.01513733318922211</v>
+      </c>
+      <c r="G23">
+        <v>0.03959900302007072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03406552783281432</v>
+        <v>-0.03353743308767206</v>
       </c>
       <c r="C24">
-        <v>-0.05033593651135848</v>
+        <v>0.05345230767818514</v>
       </c>
       <c r="D24">
-        <v>0.006368085382214027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02603850508088172</v>
+      </c>
+      <c r="E24">
+        <v>0.02725340018065683</v>
+      </c>
+      <c r="F24">
+        <v>-0.07587189215183801</v>
+      </c>
+      <c r="G24">
+        <v>0.01007323955380878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04871884695969424</v>
+        <v>-0.04384080990780001</v>
       </c>
       <c r="C25">
-        <v>-0.05942101544172183</v>
+        <v>0.05676392856933972</v>
       </c>
       <c r="D25">
-        <v>-0.00280226163742739</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02463535249139309</v>
+      </c>
+      <c r="E25">
+        <v>0.02177184728505113</v>
+      </c>
+      <c r="F25">
+        <v>-0.07804310090464753</v>
+      </c>
+      <c r="G25">
+        <v>0.02697344959030494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01650763023412972</v>
+        <v>-0.01375574085527264</v>
       </c>
       <c r="C26">
-        <v>-0.01407713614240492</v>
+        <v>0.01696983064765669</v>
       </c>
       <c r="D26">
-        <v>-0.001652303927601594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02378367287347725</v>
+      </c>
+      <c r="E26">
+        <v>0.03905419757776474</v>
+      </c>
+      <c r="F26">
+        <v>-0.06821424539639691</v>
+      </c>
+      <c r="G26">
+        <v>-0.01340459380414209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08086939412774316</v>
+        <v>-0.1343343870250182</v>
       </c>
       <c r="C28">
-        <v>0.2352237440662134</v>
+        <v>-0.2455896118456084</v>
       </c>
       <c r="D28">
-        <v>-0.01125973030116773</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02205796478111882</v>
+      </c>
+      <c r="E28">
+        <v>0.04657166752595494</v>
+      </c>
+      <c r="F28">
+        <v>-0.05685920345718687</v>
+      </c>
+      <c r="G28">
+        <v>0.02283049460030076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009593826739154848</v>
+        <v>-0.00585244389531457</v>
       </c>
       <c r="C29">
-        <v>-0.02844020579795629</v>
+        <v>0.02771488956766286</v>
       </c>
       <c r="D29">
-        <v>-0.01941829420663585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01860803005598848</v>
+      </c>
+      <c r="E29">
+        <v>0.03869159266961347</v>
+      </c>
+      <c r="F29">
+        <v>-0.08728187440059262</v>
+      </c>
+      <c r="G29">
+        <v>0.005949430964599958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.0536166321725146</v>
+        <v>-0.04199966765324084</v>
       </c>
       <c r="C30">
-        <v>-0.0581196423603537</v>
+        <v>0.06384235238072622</v>
       </c>
       <c r="D30">
-        <v>0.07052097634160485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1060615059164035</v>
+      </c>
+      <c r="E30">
+        <v>0.06502952650153261</v>
+      </c>
+      <c r="F30">
+        <v>-0.09132632296374686</v>
+      </c>
+      <c r="G30">
+        <v>-0.01281398947639447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05514219653560427</v>
+        <v>-0.05473144247885641</v>
       </c>
       <c r="C31">
-        <v>-0.03349796054137039</v>
+        <v>0.05514294474666383</v>
       </c>
       <c r="D31">
-        <v>-0.03069311193104272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01290912401876199</v>
+      </c>
+      <c r="E31">
+        <v>0.05673204063136892</v>
+      </c>
+      <c r="F31">
+        <v>-0.07429194262093679</v>
+      </c>
+      <c r="G31">
+        <v>0.04904458195527642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002100345813159628</v>
+        <v>-0.005198259794531983</v>
       </c>
       <c r="C32">
-        <v>-0.04321787634079523</v>
+        <v>0.03393138170917597</v>
       </c>
       <c r="D32">
-        <v>0.04251514195270179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05107473697842646</v>
+      </c>
+      <c r="E32">
+        <v>0.04038661916660538</v>
+      </c>
+      <c r="F32">
+        <v>-0.0668397567743622</v>
+      </c>
+      <c r="G32">
+        <v>-0.009324087315330029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03001147955465431</v>
+        <v>-0.02467564272769466</v>
       </c>
       <c r="C33">
-        <v>-0.06128515327292115</v>
+        <v>0.05539984310728928</v>
       </c>
       <c r="D33">
-        <v>0.04289924292048859</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07627188593790647</v>
+      </c>
+      <c r="E33">
+        <v>0.07251865729901083</v>
+      </c>
+      <c r="F33">
+        <v>-0.117982670051717</v>
+      </c>
+      <c r="G33">
+        <v>0.02231148122280452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04646329189985536</v>
+        <v>-0.04095766708673488</v>
       </c>
       <c r="C34">
-        <v>-0.06458952824076508</v>
+        <v>0.06382375769320514</v>
       </c>
       <c r="D34">
-        <v>0.008983670321967585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03388989063084318</v>
+      </c>
+      <c r="E34">
+        <v>0.002543509719766917</v>
+      </c>
+      <c r="F34">
+        <v>-0.07781997876454537</v>
+      </c>
+      <c r="G34">
+        <v>0.01167376093857907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01366928334211093</v>
+        <v>-0.01302493468762961</v>
       </c>
       <c r="C36">
-        <v>-0.01615251326612413</v>
+        <v>0.01280072649368861</v>
       </c>
       <c r="D36">
-        <v>-0.003716590577043275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02531889416575921</v>
+      </c>
+      <c r="E36">
+        <v>0.04568943833986423</v>
+      </c>
+      <c r="F36">
+        <v>-0.07534279883023051</v>
+      </c>
+      <c r="G36">
+        <v>0.01031906411913664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03138393644418108</v>
+        <v>-0.02435168537250097</v>
       </c>
       <c r="C38">
-        <v>-0.02845094487433233</v>
+        <v>0.02467315145025445</v>
       </c>
       <c r="D38">
-        <v>-0.007080999108452319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02414306029958484</v>
+      </c>
+      <c r="E38">
+        <v>0.04447762340226608</v>
+      </c>
+      <c r="F38">
+        <v>-0.06297206576983257</v>
+      </c>
+      <c r="G38">
+        <v>0.00540903683159986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04606914732615929</v>
+        <v>-0.03940079263820416</v>
       </c>
       <c r="C39">
-        <v>-0.07279400171335823</v>
+        <v>0.06844434608081867</v>
       </c>
       <c r="D39">
-        <v>0.02480392907662067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05219171828936665</v>
+      </c>
+      <c r="E39">
+        <v>0.03272839348247606</v>
+      </c>
+      <c r="F39">
+        <v>-0.0861598881537894</v>
+      </c>
+      <c r="G39">
+        <v>-0.01337137706705089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0164655940539375</v>
+        <v>-0.01535660683794026</v>
       </c>
       <c r="C40">
-        <v>-0.03990522230843051</v>
+        <v>0.04016468483584179</v>
       </c>
       <c r="D40">
-        <v>0.03354957809510285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03513128662800296</v>
+      </c>
+      <c r="E40">
+        <v>0.08538456314060366</v>
+      </c>
+      <c r="F40">
+        <v>-0.0702034918302456</v>
+      </c>
+      <c r="G40">
+        <v>0.04416550207742208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01716930213540552</v>
+        <v>-0.0176025545953774</v>
       </c>
       <c r="C41">
-        <v>-0.008320834253734158</v>
+        <v>0.006530972364833656</v>
       </c>
       <c r="D41">
-        <v>-0.00705111620467329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01289796190530077</v>
+      </c>
+      <c r="E41">
+        <v>0.04784408714662568</v>
+      </c>
+      <c r="F41">
+        <v>-0.0650877689645228</v>
+      </c>
+      <c r="G41">
+        <v>0.003644028417307012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.001916794844286515</v>
+        <v>-0.001425519695544067</v>
       </c>
       <c r="C42">
-        <v>-0.004464223621927449</v>
+        <v>0.002583717859474159</v>
       </c>
       <c r="D42">
-        <v>-0.002761511733274389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.003564409981269312</v>
+      </c>
+      <c r="E42">
+        <v>0.0003794917853782445</v>
+      </c>
+      <c r="F42">
+        <v>0.005323670852788781</v>
+      </c>
+      <c r="G42">
+        <v>-0.000386718212302475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03684843010175282</v>
+        <v>-0.02870409424030285</v>
       </c>
       <c r="C43">
-        <v>-0.02536000587468689</v>
+        <v>0.02203479194690626</v>
       </c>
       <c r="D43">
-        <v>0.01462473689605111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03804853790512666</v>
+      </c>
+      <c r="E43">
+        <v>0.06037025506181095</v>
+      </c>
+      <c r="F43">
+        <v>-0.07423772398992248</v>
+      </c>
+      <c r="G43">
+        <v>0.02312184630202266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02089237401243491</v>
+        <v>-0.01400734414843984</v>
       </c>
       <c r="C44">
-        <v>-0.05783619104136953</v>
+        <v>0.05276857404536315</v>
       </c>
       <c r="D44">
-        <v>0.01529459082013036</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03797440442647494</v>
+      </c>
+      <c r="E44">
+        <v>0.07566928403303025</v>
+      </c>
+      <c r="F44">
+        <v>-0.07561707254945095</v>
+      </c>
+      <c r="G44">
+        <v>-0.002674129447492792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.005445416397500738</v>
+        <v>-0.007439898006531636</v>
       </c>
       <c r="C46">
-        <v>-0.02298466054189963</v>
+        <v>0.02567038068493125</v>
       </c>
       <c r="D46">
-        <v>-0.02578240654177449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009128999905819763</v>
+      </c>
+      <c r="E46">
+        <v>0.04476386218438982</v>
+      </c>
+      <c r="F46">
+        <v>-0.09921890913618465</v>
+      </c>
+      <c r="G46">
+        <v>0.001341362116194234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08489680377339989</v>
+        <v>-0.08709863660712115</v>
       </c>
       <c r="C47">
-        <v>-0.06488012676729137</v>
+        <v>0.0797465802080108</v>
       </c>
       <c r="D47">
-        <v>-0.0293690905634234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02030039348811579</v>
+      </c>
+      <c r="E47">
+        <v>0.06122230143696238</v>
+      </c>
+      <c r="F47">
+        <v>-0.07320313957746129</v>
+      </c>
+      <c r="G47">
+        <v>0.05192703326197496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01985703408598642</v>
+        <v>-0.01571154750624492</v>
       </c>
       <c r="C48">
-        <v>-0.01296557534000183</v>
+        <v>0.01747358055272728</v>
       </c>
       <c r="D48">
-        <v>-0.01668455003462848</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0142964802851846</v>
+      </c>
+      <c r="E48">
+        <v>0.05698866518682859</v>
+      </c>
+      <c r="F48">
+        <v>-0.08918658348485019</v>
+      </c>
+      <c r="G48">
+        <v>0.009887055684771016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08439809600864882</v>
+        <v>-0.07089781650393645</v>
       </c>
       <c r="C50">
-        <v>-0.06858903451768111</v>
+        <v>0.07192048702771799</v>
       </c>
       <c r="D50">
-        <v>-0.03643478447979141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007888622083570279</v>
+      </c>
+      <c r="E50">
+        <v>0.06260375808332305</v>
+      </c>
+      <c r="F50">
+        <v>-0.06142933789268133</v>
+      </c>
+      <c r="G50">
+        <v>0.07354269850220706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01729880571608428</v>
+        <v>-0.01074845699612759</v>
       </c>
       <c r="C51">
-        <v>-0.04732589835347035</v>
+        <v>0.03415092187532312</v>
       </c>
       <c r="D51">
-        <v>0.02139782855246177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04793454130031987</v>
+      </c>
+      <c r="E51">
+        <v>0.03711061020395357</v>
+      </c>
+      <c r="F51">
+        <v>-0.07660091961313852</v>
+      </c>
+      <c r="G51">
+        <v>-0.01867379148953861</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08609557810747166</v>
+        <v>-0.09385574360436835</v>
       </c>
       <c r="C53">
-        <v>-0.07142633759637126</v>
+        <v>0.0864449168296402</v>
       </c>
       <c r="D53">
-        <v>-0.04093979078416295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04312506247435009</v>
+      </c>
+      <c r="E53">
+        <v>0.05726061616072421</v>
+      </c>
+      <c r="F53">
+        <v>-0.08454642624298159</v>
+      </c>
+      <c r="G53">
+        <v>0.0639923646518577</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03381323424906079</v>
+        <v>-0.02809632463644123</v>
       </c>
       <c r="C54">
-        <v>-0.02418549462554477</v>
+        <v>0.02652501261456686</v>
       </c>
       <c r="D54">
-        <v>-0.006997414098387747</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02735222339809885</v>
+      </c>
+      <c r="E54">
+        <v>0.04919288936434685</v>
+      </c>
+      <c r="F54">
+        <v>-0.09511586013127252</v>
+      </c>
+      <c r="G54">
+        <v>0.006561175508433449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07788926860378548</v>
+        <v>-0.08525100844313746</v>
       </c>
       <c r="C55">
-        <v>-0.05643533123736029</v>
+        <v>0.07038462636179564</v>
       </c>
       <c r="D55">
-        <v>-0.04777607750388083</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04995481213734527</v>
+      </c>
+      <c r="E55">
+        <v>0.04542389994611826</v>
+      </c>
+      <c r="F55">
+        <v>-0.05982203427230497</v>
+      </c>
+      <c r="G55">
+        <v>0.05225464173494141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.151208019846327</v>
+        <v>-0.1467522399645078</v>
       </c>
       <c r="C56">
-        <v>-0.08755636444058268</v>
+        <v>0.1038093991529994</v>
       </c>
       <c r="D56">
-        <v>-0.05248091841950204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05383463904217566</v>
+      </c>
+      <c r="E56">
+        <v>0.04708677652563234</v>
+      </c>
+      <c r="F56">
+        <v>-0.04462250088966839</v>
+      </c>
+      <c r="G56">
+        <v>0.05961270135940359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0008110742425699913</v>
+        <v>-0.0001623756087714316</v>
       </c>
       <c r="C57">
-        <v>-0.0008088381114751946</v>
+        <v>0.0006562651334812524</v>
       </c>
       <c r="D57">
-        <v>0.01756551604206776</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01322993109385009</v>
+      </c>
+      <c r="E57">
+        <v>0.008246253935922874</v>
+      </c>
+      <c r="F57">
+        <v>-0.008512397289329744</v>
+      </c>
+      <c r="G57">
+        <v>0.004323761526872773</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06799730163186335</v>
+        <v>-0.02892900957852954</v>
       </c>
       <c r="C58">
-        <v>-0.02173382178966894</v>
+        <v>0.03815806765593075</v>
       </c>
       <c r="D58">
-        <v>0.7268103308292392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4010756621894259</v>
+      </c>
+      <c r="E58">
+        <v>0.6737376990050236</v>
+      </c>
+      <c r="F58">
+        <v>0.5357929382315066</v>
+      </c>
+      <c r="G58">
+        <v>-0.05841029164332946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1265430063332026</v>
+        <v>-0.1443847553110341</v>
       </c>
       <c r="C59">
-        <v>0.2065285808353234</v>
+        <v>-0.1874481615706403</v>
       </c>
       <c r="D59">
-        <v>0.01727467390708674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03001104377625303</v>
+      </c>
+      <c r="E59">
+        <v>0.02861603440172607</v>
+      </c>
+      <c r="F59">
+        <v>-0.02255122606901344</v>
+      </c>
+      <c r="G59">
+        <v>-0.02867346116804123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3124407178733767</v>
+        <v>-0.2835027559893419</v>
       </c>
       <c r="C60">
-        <v>-0.07474916434981539</v>
+        <v>0.09683736267608863</v>
       </c>
       <c r="D60">
-        <v>0.1216753274969972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2268275343068814</v>
+      </c>
+      <c r="E60">
+        <v>-0.2625653407924618</v>
+      </c>
+      <c r="F60">
+        <v>0.0939994361129953</v>
+      </c>
+      <c r="G60">
+        <v>0.04378102195598764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04316785313396758</v>
+        <v>-0.04070880734430236</v>
       </c>
       <c r="C61">
-        <v>-0.06315852423516395</v>
+        <v>0.06234589288723267</v>
       </c>
       <c r="D61">
-        <v>0.01407989635351815</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04481222657344093</v>
+      </c>
+      <c r="E61">
+        <v>0.03636285495243059</v>
+      </c>
+      <c r="F61">
+        <v>-0.07708451439835419</v>
+      </c>
+      <c r="G61">
+        <v>0.01282874129349331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01668077395746502</v>
+        <v>-0.01501886224455828</v>
       </c>
       <c r="C63">
-        <v>-0.03528392148262603</v>
+        <v>0.03257064405184736</v>
       </c>
       <c r="D63">
-        <v>-0.008192814645364706</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0208794427921173</v>
+      </c>
+      <c r="E63">
+        <v>0.04820570131815786</v>
+      </c>
+      <c r="F63">
+        <v>-0.06978278423876472</v>
+      </c>
+      <c r="G63">
+        <v>0.02883299396751222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05195349680125777</v>
+        <v>-0.05595870489813046</v>
       </c>
       <c r="C64">
-        <v>-0.03927618749177078</v>
+        <v>0.05505223047898816</v>
       </c>
       <c r="D64">
-        <v>-0.008623467690789172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005677418395127712</v>
+      </c>
+      <c r="E64">
+        <v>0.02949124024583633</v>
+      </c>
+      <c r="F64">
+        <v>-0.08400986990867293</v>
+      </c>
+      <c r="G64">
+        <v>0.0112825063594529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09158760561652673</v>
+        <v>-0.06888045953812817</v>
       </c>
       <c r="C65">
-        <v>-0.02354963417811547</v>
+        <v>0.03125093741103365</v>
       </c>
       <c r="D65">
-        <v>0.04603824180158431</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08413733895008382</v>
+      </c>
+      <c r="E65">
+        <v>0.04310973681809128</v>
+      </c>
+      <c r="F65">
+        <v>-0.008499455101223701</v>
+      </c>
+      <c r="G65">
+        <v>0.001078947798358623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06619626787360568</v>
+        <v>-0.05211132867201981</v>
       </c>
       <c r="C66">
-        <v>-0.1012150474294579</v>
+        <v>0.09070805211499572</v>
       </c>
       <c r="D66">
-        <v>0.04260151244695929</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07934082411409676</v>
+      </c>
+      <c r="E66">
+        <v>0.04079305257671684</v>
+      </c>
+      <c r="F66">
+        <v>-0.08652058146001262</v>
+      </c>
+      <c r="G66">
+        <v>0.003857290374640005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05309489421847697</v>
+        <v>-0.04639431444672053</v>
       </c>
       <c r="C67">
-        <v>-0.0320987902404586</v>
+        <v>0.03068770668591586</v>
       </c>
       <c r="D67">
-        <v>-0.009426429157563138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01120109151305783</v>
+      </c>
+      <c r="E67">
+        <v>0.02372780402754532</v>
+      </c>
+      <c r="F67">
+        <v>-0.05182634239893868</v>
+      </c>
+      <c r="G67">
+        <v>0.01211188585638999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1093179930173415</v>
+        <v>-0.1498368513653362</v>
       </c>
       <c r="C68">
-        <v>0.290297395589288</v>
+        <v>-0.2515248827303884</v>
       </c>
       <c r="D68">
-        <v>-0.01294880257289007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02167800870036855</v>
+      </c>
+      <c r="E68">
+        <v>0.04123062945912211</v>
+      </c>
+      <c r="F68">
+        <v>-0.01403056572210563</v>
+      </c>
+      <c r="G68">
+        <v>0.01086752119005635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09116783972213843</v>
+        <v>-0.08692778006562375</v>
       </c>
       <c r="C69">
-        <v>-0.06483981840231247</v>
+        <v>0.08586837539601573</v>
       </c>
       <c r="D69">
-        <v>-0.04179345918335219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01102250226041321</v>
+      </c>
+      <c r="E69">
+        <v>0.04446475264913215</v>
+      </c>
+      <c r="F69">
+        <v>-0.09070209327962389</v>
+      </c>
+      <c r="G69">
+        <v>0.02952612496784728</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.105580322976877</v>
+        <v>-0.1421532441149199</v>
       </c>
       <c r="C71">
-        <v>0.2511577987541143</v>
+        <v>-0.2335510835300686</v>
       </c>
       <c r="D71">
-        <v>0.01612726706678506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.009332068293009069</v>
+      </c>
+      <c r="E71">
+        <v>0.0665280693000327</v>
+      </c>
+      <c r="F71">
+        <v>-0.05432039706435191</v>
+      </c>
+      <c r="G71">
+        <v>0.03506137277551569</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08906531672592935</v>
+        <v>-0.0971207197744066</v>
       </c>
       <c r="C72">
-        <v>-0.04547712325914698</v>
+        <v>0.05426510715871261</v>
       </c>
       <c r="D72">
-        <v>0.0005703288574725234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02439808180941062</v>
+      </c>
+      <c r="E72">
+        <v>0.02177435271554617</v>
+      </c>
+      <c r="F72">
+        <v>-0.07391646741368131</v>
+      </c>
+      <c r="G72">
+        <v>0.02871520944004704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4213041193589828</v>
+        <v>-0.3471460211489347</v>
       </c>
       <c r="C73">
-        <v>-0.04698511219906742</v>
+        <v>0.07868114942381667</v>
       </c>
       <c r="D73">
-        <v>0.3251198468742603</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.476497857019949</v>
+      </c>
+      <c r="E73">
+        <v>-0.4655964117311268</v>
+      </c>
+      <c r="F73">
+        <v>0.252385655219767</v>
+      </c>
+      <c r="G73">
+        <v>0.09794352978246798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1153484419103867</v>
+        <v>-0.1117640441444906</v>
       </c>
       <c r="C74">
-        <v>-0.09856274793547533</v>
+        <v>0.09975832282706372</v>
       </c>
       <c r="D74">
-        <v>-0.02875559457717674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03449320927379518</v>
+      </c>
+      <c r="E74">
+        <v>0.06540140445248924</v>
+      </c>
+      <c r="F74">
+        <v>-0.04661392072333437</v>
+      </c>
+      <c r="G74">
+        <v>0.07328903758626377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2513259434750986</v>
+        <v>-0.2570764986979295</v>
       </c>
       <c r="C75">
-        <v>-0.1023111334984989</v>
+        <v>0.1318398918229818</v>
       </c>
       <c r="D75">
-        <v>-0.09253475222149685</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1336686787297149</v>
+      </c>
+      <c r="E75">
+        <v>0.06555617340090079</v>
+      </c>
+      <c r="F75">
+        <v>-0.01180415992599121</v>
+      </c>
+      <c r="G75">
+        <v>0.07614938384222625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1170227336512416</v>
+        <v>-0.1287877033523578</v>
       </c>
       <c r="C76">
-        <v>-0.08871841104481754</v>
+        <v>0.1012065132353744</v>
       </c>
       <c r="D76">
-        <v>-0.04539779365609085</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06099385489879711</v>
+      </c>
+      <c r="E76">
+        <v>0.07086673582510014</v>
+      </c>
+      <c r="F76">
+        <v>-0.06422926753172155</v>
+      </c>
+      <c r="G76">
+        <v>0.06268021158872152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07917041347384016</v>
+        <v>-0.06273224250849659</v>
       </c>
       <c r="C77">
-        <v>-0.05213967675044862</v>
+        <v>0.07014688418872966</v>
       </c>
       <c r="D77">
-        <v>0.06353357834005993</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06411820802383485</v>
+      </c>
+      <c r="E77">
+        <v>0.09131798719503269</v>
+      </c>
+      <c r="F77">
+        <v>-0.111279492252785</v>
+      </c>
+      <c r="G77">
+        <v>-0.1349801726237078</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05011705309514853</v>
+        <v>-0.04351968706269103</v>
       </c>
       <c r="C78">
-        <v>-0.04085127567566493</v>
+        <v>0.05652744012626991</v>
       </c>
       <c r="D78">
-        <v>0.02715688740143368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07106135631529852</v>
+      </c>
+      <c r="E78">
+        <v>0.04543043184206749</v>
+      </c>
+      <c r="F78">
+        <v>-0.09665384664490834</v>
+      </c>
+      <c r="G78">
+        <v>0.005214754063147315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02549639826580547</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03816567072509146</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06230620679842726</v>
+      </c>
+      <c r="E79">
+        <v>0.05130015024051334</v>
+      </c>
+      <c r="F79">
+        <v>-0.04001880678090158</v>
+      </c>
+      <c r="G79">
+        <v>0.06767332520054402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04689772578200378</v>
+        <v>-0.03475697650603363</v>
       </c>
       <c r="C80">
-        <v>-0.05072753904827828</v>
+        <v>0.0554938343260822</v>
       </c>
       <c r="D80">
-        <v>0.03418163508266339</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04507795017255791</v>
+      </c>
+      <c r="E80">
+        <v>0.01762577432343576</v>
+      </c>
+      <c r="F80">
+        <v>-0.03497885549347817</v>
+      </c>
+      <c r="G80">
+        <v>-0.04629996481378797</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1424798989484221</v>
+        <v>-0.1407902347767545</v>
       </c>
       <c r="C81">
-        <v>-0.0709898869005549</v>
+        <v>0.09591965723000261</v>
       </c>
       <c r="D81">
-        <v>-0.06350174285218724</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1017760550075026</v>
+      </c>
+      <c r="E81">
+        <v>0.07818713160419213</v>
+      </c>
+      <c r="F81">
+        <v>-0.009446529273294629</v>
+      </c>
+      <c r="G81">
+        <v>0.0562493184212309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1597676755262348</v>
+        <v>-0.2015351164363153</v>
       </c>
       <c r="C82">
-        <v>-0.05570425942667234</v>
+        <v>0.1358374687418751</v>
       </c>
       <c r="D82">
-        <v>-0.155653093065448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2351093977234252</v>
+      </c>
+      <c r="E82">
+        <v>-0.008216627764596562</v>
+      </c>
+      <c r="F82">
+        <v>-0.1015769457180287</v>
+      </c>
+      <c r="G82">
+        <v>0.04498701050879877</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03602003451926853</v>
+        <v>-0.02813272066210931</v>
       </c>
       <c r="C83">
-        <v>-0.02279709777140831</v>
+        <v>0.04162509370407188</v>
       </c>
       <c r="D83">
-        <v>0.0381742286005045</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0342795283876805</v>
+      </c>
+      <c r="E83">
+        <v>0.02069544174872456</v>
+      </c>
+      <c r="F83">
+        <v>-0.04465259304869271</v>
+      </c>
+      <c r="G83">
+        <v>-0.01952032687061379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2203339465861785</v>
+        <v>-0.2044153880904069</v>
       </c>
       <c r="C85">
-        <v>-0.1001603704322552</v>
+        <v>0.1193698956413128</v>
       </c>
       <c r="D85">
-        <v>-0.1154640272206301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1005282424511438</v>
+      </c>
+      <c r="E85">
+        <v>-0.00561761801025732</v>
+      </c>
+      <c r="F85">
+        <v>0.01801162492759809</v>
+      </c>
+      <c r="G85">
+        <v>0.1279240250348646</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01181882250852562</v>
+        <v>-0.01144278998275318</v>
       </c>
       <c r="C86">
-        <v>-0.03304889825827815</v>
+        <v>0.03006302693103688</v>
       </c>
       <c r="D86">
-        <v>0.04726804655917097</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06660890542307327</v>
+      </c>
+      <c r="E86">
+        <v>0.06248591668470151</v>
+      </c>
+      <c r="F86">
+        <v>-0.1315607710190251</v>
+      </c>
+      <c r="G86">
+        <v>-0.009200864400945277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02304388249483282</v>
+        <v>-0.02154118670486647</v>
       </c>
       <c r="C87">
-        <v>-0.02040463861527646</v>
+        <v>0.02175340394219508</v>
       </c>
       <c r="D87">
-        <v>0.09648827135507192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0882462467743218</v>
+      </c>
+      <c r="E87">
+        <v>0.1115834119693271</v>
+      </c>
+      <c r="F87">
+        <v>-0.07537029570548548</v>
+      </c>
+      <c r="G87">
+        <v>-0.03609876520815924</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1069280984919525</v>
+        <v>-0.09190899423625444</v>
       </c>
       <c r="C88">
-        <v>-0.06864754415778457</v>
+        <v>0.06277078519584803</v>
       </c>
       <c r="D88">
-        <v>-0.0308626518659594</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006649875699430526</v>
+      </c>
+      <c r="E88">
+        <v>0.04129734169277968</v>
+      </c>
+      <c r="F88">
+        <v>-0.0704302679421159</v>
+      </c>
+      <c r="G88">
+        <v>-0.02873208445480848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1681522733693581</v>
+        <v>-0.221533656577415</v>
       </c>
       <c r="C89">
-        <v>0.3845806648311216</v>
+        <v>-0.3797915382499756</v>
       </c>
       <c r="D89">
-        <v>-0.009266098302729654</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.007888096352561502</v>
+      </c>
+      <c r="E89">
+        <v>0.06255399593965988</v>
+      </c>
+      <c r="F89">
+        <v>-0.07476075653029003</v>
+      </c>
+      <c r="G89">
+        <v>-0.06329247987955761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1633020899737674</v>
+        <v>-0.200070695062009</v>
       </c>
       <c r="C90">
-        <v>0.3477879515512297</v>
+        <v>-0.3152683500445678</v>
       </c>
       <c r="D90">
-        <v>-0.02979965851902336</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01751099070916438</v>
+      </c>
+      <c r="E90">
+        <v>0.0690486528455503</v>
+      </c>
+      <c r="F90">
+        <v>-0.03987427981841079</v>
+      </c>
+      <c r="G90">
+        <v>-0.01122683985976795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1923740383149522</v>
+        <v>-0.1864270445597975</v>
       </c>
       <c r="C91">
-        <v>-0.1155612799557925</v>
+        <v>0.1397587401130747</v>
       </c>
       <c r="D91">
-        <v>-0.08422826043657528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1112874416987407</v>
+      </c>
+      <c r="E91">
+        <v>0.05737977851121689</v>
+      </c>
+      <c r="F91">
+        <v>-0.03474712072732613</v>
+      </c>
+      <c r="G91">
+        <v>0.06072886100082733</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1579969838274582</v>
+        <v>-0.1819303612855662</v>
       </c>
       <c r="C92">
-        <v>0.2936117429957005</v>
+        <v>-0.2838448711027757</v>
       </c>
       <c r="D92">
-        <v>-0.01889688310994249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.00677280855659181</v>
+      </c>
+      <c r="E92">
+        <v>0.07145086220716422</v>
+      </c>
+      <c r="F92">
+        <v>-0.08095176460912194</v>
+      </c>
+      <c r="G92">
+        <v>-0.00738847240078818</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1859477624342356</v>
+        <v>-0.2243957343466552</v>
       </c>
       <c r="C93">
-        <v>0.3483817743564552</v>
+        <v>-0.3198696527536538</v>
       </c>
       <c r="D93">
-        <v>-0.02181756273012002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003647002017773546</v>
+      </c>
+      <c r="E93">
+        <v>0.05221208058852115</v>
+      </c>
+      <c r="F93">
+        <v>-0.0381332831024602</v>
+      </c>
+      <c r="G93">
+        <v>0.02709049997685603</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.340291392536114</v>
+        <v>-0.3427133399146994</v>
       </c>
       <c r="C94">
-        <v>-0.1341939114706381</v>
+        <v>0.183974044543548</v>
       </c>
       <c r="D94">
-        <v>-0.4332311476200617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4955740607322502</v>
+      </c>
+      <c r="E94">
+        <v>0.05057159492982007</v>
+      </c>
+      <c r="F94">
+        <v>0.4425799760295992</v>
+      </c>
+      <c r="G94">
+        <v>-0.3330256019429433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1130919254814672</v>
+        <v>-0.08570739439597914</v>
       </c>
       <c r="C95">
-        <v>-0.07379613865852409</v>
+        <v>0.06783033300435855</v>
       </c>
       <c r="D95">
-        <v>0.1132866854920696</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1711844448842691</v>
+      </c>
+      <c r="E95">
+        <v>-0.0945082560372117</v>
+      </c>
+      <c r="F95">
+        <v>-0.2207783504887475</v>
+      </c>
+      <c r="G95">
+        <v>-0.8652504495846679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1965891591327965</v>
+        <v>-0.1873511036511594</v>
       </c>
       <c r="C98">
-        <v>-0.016534669748294</v>
+        <v>0.04320033013962511</v>
       </c>
       <c r="D98">
-        <v>0.1213024270951748</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.190018421834265</v>
+      </c>
+      <c r="E98">
+        <v>-0.1476270977648435</v>
+      </c>
+      <c r="F98">
+        <v>0.03266753869745315</v>
+      </c>
+      <c r="G98">
+        <v>0.1012384487187229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009525942691654413</v>
+        <v>-0.005901512900200968</v>
       </c>
       <c r="C101">
-        <v>-0.02845433113484248</v>
+        <v>0.02746294584013008</v>
       </c>
       <c r="D101">
-        <v>-0.01997218957449448</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01806522764281753</v>
+      </c>
+      <c r="E101">
+        <v>0.03935842069017775</v>
+      </c>
+      <c r="F101">
+        <v>-0.08699856182041102</v>
+      </c>
+      <c r="G101">
+        <v>0.004877922523625952</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1241035402644524</v>
+        <v>-0.1244296977900857</v>
       </c>
       <c r="C102">
-        <v>-0.07101518648837059</v>
+        <v>0.09985935100981132</v>
       </c>
       <c r="D102">
-        <v>-0.03107366733257805</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0485831172792098</v>
+      </c>
+      <c r="E102">
+        <v>-0.00869114285359501</v>
+      </c>
+      <c r="F102">
+        <v>-0.04318903810042937</v>
+      </c>
+      <c r="G102">
+        <v>0.02319205676819769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
